--- a/output/proc_1_CHARLS/PCAresult_CHARLS.xlsx
+++ b/output/proc_1_CHARLS/PCAresult_CHARLS.xlsx
@@ -341,97 +341,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>4.18848049519747</v>
+        <v>3.24968996259798</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.84559321095534</v>
+        <v>2.76597503654087</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.21771780309013</v>
+        <v>2.12876140775873</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.87174471717531</v>
+        <v>1.52413478279619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.17627092598989</v>
+        <v>1.10306923600978</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.11127193732521</v>
+        <v>0.975437047397165</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.981049606265128</v>
+        <v>0.865807546161049</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.863425427900206</v>
+        <v>0.819597330732492</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.661741212193034</v>
+        <v>0.667050480352514</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.631216402023865</v>
+        <v>0.580810598369656</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.601482058541087</v>
+        <v>0.513071349466067</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.537629837901562</v>
+        <v>0.345609648545434</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.47822644968133</v>
+        <v>0.154587375357505</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.323646155886589</v>
+        <v>0.110946426146278</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.152497949986457</v>
+        <v>0.110053151451483</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.111232297958565</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0.110120403527798</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>0.0859696777676461</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>0.0506834306333761</v>
+        <v>0.0853986203168147</v>
       </c>
     </row>
   </sheetData>
@@ -450,127 +435,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5.09881532329217</v>
+        <v>3.78093102256906</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.67240186084414</v>
+        <v>2.54401130743737</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.32957519417779</v>
+        <v>1.81446787143603</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.62561239531104</v>
+        <v>1.44335803897288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.52495401790532</v>
+        <v>1.09094023536147</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.42760105625296</v>
+        <v>0.943968981784901</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.29840566203765</v>
+        <v>0.90991225795376</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.07094951664751</v>
+        <v>0.809633444956901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.917741818167427</v>
+        <v>0.788419202690728</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.894430834170539</v>
+        <v>0.678128219447901</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.811231582136937</v>
+        <v>0.630875468934037</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.700484453219899</v>
+        <v>0.572972754585166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.676615093672168</v>
+        <v>0.400044241765646</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.619782689066649</v>
+        <v>0.332197568734072</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.5601872483464</v>
+        <v>0.134553892923291</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.496487327702778</v>
+        <v>0.117897185017203</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.384171906383652</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>0.315524699330324</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>0.234010483908821</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>0.130407970722056</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>0.115105643604633</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.0604009755846318</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>0.0269271459421119</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>0.0068487734789237</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>0.00132632809345427</v>
+        <v>0.0076883054295868</v>
       </c>
     </row>
   </sheetData>

--- a/output/proc_1_CHARLS/PCAresult_CHARLS.xlsx
+++ b/output/proc_1_CHARLS/PCAresult_CHARLS.xlsx
@@ -341,82 +341,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>3.24968996259798</v>
+        <v>3.17628802895906</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.76597503654087</v>
+        <v>2.78638161887961</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.12876140775873</v>
+        <v>2.1042176646398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.52413478279619</v>
+        <v>1.69535510502432</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.10306923600978</v>
+        <v>1.10879308735565</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.975437047397165</v>
+        <v>0.995629744266522</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.865807546161049</v>
+        <v>0.869729180034146</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.819597330732492</v>
+        <v>0.78740217344344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.667050480352514</v>
+        <v>0.696219201282135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.580810598369656</v>
+        <v>0.598949283971256</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.513071349466067</v>
+        <v>0.471961108424601</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.345609648545434</v>
+        <v>0.324712925902315</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.154587375357505</v>
+        <v>0.141797149123868</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.110946426146278</v>
+        <v>0.11192129353216</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.110053151451483</v>
+        <v>0.109476867300401</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0853986203168147</v>
+        <v>0.0211655678607131</v>
       </c>
     </row>
   </sheetData>
@@ -435,87 +435,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>3.78093102256906</v>
+        <v>3.70257288893534</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.54401130743737</v>
+        <v>2.592355898322</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.81446787143603</v>
+        <v>1.89106947479405</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.44335803897288</v>
+        <v>1.44190343749358</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.09094023536147</v>
+        <v>1.19607128962009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.943968981784901</v>
+        <v>1.03679147647512</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.90991225795376</v>
+        <v>0.909115267738115</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.809633444956901</v>
+        <v>0.805488667484156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.788419202690728</v>
+        <v>0.739457764253924</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.678128219447901</v>
+        <v>0.68140363598806</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.630875468934037</v>
+        <v>0.60540587731287</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.572972754585166</v>
+        <v>0.469342523884538</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.400044241765646</v>
+        <v>0.378197546636995</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.332197568734072</v>
+        <v>0.29416551317241</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.134553892923291</v>
+        <v>0.130622340446943</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.117897185017203</v>
+        <v>0.118846518958624</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0076883054295868</v>
+        <v>0.00718987848318083</v>
       </c>
     </row>
   </sheetData>
